--- a/pred_ohlcv/54_21/2019-10-18 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 LINK ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6513.976385750771</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3279.200685750771</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-10032.23208575077</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-14918.01238575077</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-15692.81178575077</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-16094.58198575077</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-17781.43528575077</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-17038.78428575077</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-15506.95628575077</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-15648.29988575077</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-15790.99838575077</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5952.769185750773</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-9538.528785750774</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-10033.39148575077</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-56562.77156517237</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-57594.93446517237</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-54629.06656517238</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-56290.89526517237</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-55661.67396517238</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-55857.92236517237</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-55686.84186517238</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-53987.42556517238</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-58276.54576517238</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-58976.71466517238</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-55728.55976517238</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-55328.09756517238</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-49445.43206517238</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-93992.12996517238</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-96302.00896517238</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-96301.79236517238</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-99549.31554382406</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-93274.24414382406</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-93274.24414382406</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-93347.98774382407</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-94325.57904382407</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-94325.47904382406</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-94325.47904382406</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-95005.30184382405</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-94931.00028917646</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-95831.00028917646</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-96130.04516882882</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-174807.0215144952</v>
       </c>
       <c r="H705">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-182421.6528144952</v>
       </c>
       <c r="H706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-172978.9104144952</v>
       </c>
       <c r="H707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-175950.1169144952</v>
       </c>
       <c r="H708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-174320.6704144953</v>
       </c>
       <c r="H709">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H711">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-175556.8298144953</v>
       </c>
       <c r="H713">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-171113.4326839211</v>
       </c>
       <c r="H714">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H715">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-176607.8208839211</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-185101.0911839211</v>
       </c>
       <c r="H727">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H728">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-183959.0436839211</v>
       </c>
       <c r="H730">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-183959.0436839211</v>
       </c>
       <c r="H731">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H732">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H733">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H735">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H736">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H737">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-183859.2012839211</v>
       </c>
       <c r="H738">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-184940.9053839211</v>
       </c>
       <c r="H739">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-18 LINK ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 LINK ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-6570.750385750772</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-6513.976385750771</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-3279.200685750771</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-10032.23208575077</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-14918.01238575077</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-15692.81178575077</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-15586.10808575077</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-16094.58198575077</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-17781.43528575077</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-17038.78428575077</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-15506.95628575077</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-15648.29988575077</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-15384.22578575077</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-15790.99838575077</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-5952.769185750773</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9379.442985750773</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-9538.528785750774</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-10033.39148575077</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-56562.77156517237</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-57594.93446517237</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-54629.06656517238</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-56290.89526517237</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-55661.67396517238</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-55857.92236517237</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-55686.84186517238</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-53987.42556517238</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-58276.54576517238</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-59757.67326517238</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-58976.71466517238</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-55728.55976517238</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-55328.09756517238</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-49445.43206517238</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-50221.59476517238</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-93992.12996517238</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-96302.00896517238</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-96301.79236517238</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-99549.31554382406</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-96316.28234382406</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-155753.7429252195</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-155753.7429252195</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-158140.2900252194</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-155353.8873252194</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-151444.2080252194</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-151857.8587252194</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-150243.0728144952</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-150243.0728144952</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-150709.4799144952</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-150710.7792144952</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-151452.1916144952</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-151452.1916144952</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-153942.8062144952</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-167088.0717144952</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-165916.9883144952</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-166114.2317144952</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-165909.9005144952</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-166419.1239144953</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-166586.4122144952</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-166586.4122144952</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-166591.4122144952</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-168176.1754144952</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-174807.0215144952</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-182421.6528144952</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-172978.9104144952</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-175950.1169144952</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-174320.6704144953</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-174317.8297144953</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-175556.8298144953</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-171113.4326839211</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-177034.4728839211</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-176607.8208839211</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-185101.0911839211</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-184459.1436839211</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-183959.0436839211</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-183959.0436839211</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-182839.3772839211</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-183349.2892839211</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-183859.2012839211</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-184940.9053839211</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
